--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Plxna2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.9775027902456</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H2">
-        <v>49.9775027902456</v>
+        <v>161.686214</v>
       </c>
       <c r="I2">
-        <v>0.7927841151734631</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J2">
-        <v>0.7927841151734631</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.7665913908851</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N2">
-        <v>39.7665913908851</v>
+        <v>119.789299</v>
       </c>
       <c r="O2">
-        <v>0.8152232014106131</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P2">
-        <v>0.8152232014106131</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q2">
-        <v>1987.434932196517</v>
+        <v>2152.030914780443</v>
       </c>
       <c r="R2">
-        <v>1987.434932196517</v>
+        <v>19368.27823302399</v>
       </c>
       <c r="S2">
-        <v>0.6462960043991909</v>
+        <v>0.5948048806648287</v>
       </c>
       <c r="T2">
-        <v>0.6462960043991909</v>
+        <v>0.6691439266786933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.9775027902456</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H3">
-        <v>49.9775027902456</v>
+        <v>161.686214</v>
       </c>
       <c r="I3">
-        <v>0.7927841151734631</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J3">
-        <v>0.7927841151734631</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.7892792392722</v>
+        <v>3.113941333333333</v>
       </c>
       <c r="N3">
-        <v>2.7892792392722</v>
+        <v>9.341823999999999</v>
       </c>
       <c r="O3">
-        <v>0.05718079099907063</v>
+        <v>0.06111676852403306</v>
       </c>
       <c r="P3">
-        <v>0.05718079099907063</v>
+        <v>0.06388795512981353</v>
       </c>
       <c r="Q3">
-        <v>139.4012109635005</v>
+        <v>167.8271282682595</v>
       </c>
       <c r="R3">
-        <v>139.4012109635005</v>
+        <v>1510.444154414336</v>
       </c>
       <c r="S3">
-        <v>0.04533202279711694</v>
+        <v>0.04638613428660127</v>
       </c>
       <c r="T3">
-        <v>0.04533202279711694</v>
+        <v>0.05218349924312734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.9775027902456</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H4">
-        <v>49.9775027902456</v>
+        <v>161.686214</v>
       </c>
       <c r="I4">
-        <v>0.7927841151734631</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J4">
-        <v>0.7927841151734631</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.224997559232255</v>
+        <v>0.3581776666666667</v>
       </c>
       <c r="N4">
-        <v>0.224997559232255</v>
+        <v>1.074533</v>
       </c>
       <c r="O4">
-        <v>0.004612495668636448</v>
+        <v>0.007029888877422099</v>
       </c>
       <c r="P4">
-        <v>0.004612495668636448</v>
+        <v>0.007348641559667998</v>
       </c>
       <c r="Q4">
-        <v>11.24481614432847</v>
+        <v>19.30413028756245</v>
       </c>
       <c r="R4">
-        <v>11.24481614432847</v>
+        <v>173.737172588062</v>
       </c>
       <c r="S4">
-        <v>0.003656713297401378</v>
+        <v>0.005335513924623771</v>
       </c>
       <c r="T4">
-        <v>0.003656713297401378</v>
+        <v>0.006002349433281483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.9775027902456</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H5">
-        <v>49.9775027902456</v>
+        <v>161.686214</v>
       </c>
       <c r="I5">
-        <v>0.7927841151734631</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J5">
-        <v>0.7927841151734631</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.99913625856456</v>
+        <v>0.918732</v>
       </c>
       <c r="N5">
-        <v>5.99913625856456</v>
+        <v>2.756196</v>
       </c>
       <c r="O5">
-        <v>0.1229835119216798</v>
+        <v>0.0180317883251564</v>
       </c>
       <c r="P5">
-        <v>0.1229835119216798</v>
+        <v>0.01884939454832071</v>
       </c>
       <c r="Q5">
-        <v>299.8218491014738</v>
+        <v>49.51543292021601</v>
       </c>
       <c r="R5">
-        <v>299.8218491014738</v>
+        <v>445.638896281944</v>
       </c>
       <c r="S5">
-        <v>0.097499374679754</v>
+        <v>0.01368568683976419</v>
       </c>
       <c r="T5">
-        <v>0.097499374679754</v>
+        <v>0.01539613162053905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.44556156856021</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H6">
-        <v>1.44556156856021</v>
+        <v>161.686214</v>
       </c>
       <c r="I6">
-        <v>0.02293068250867957</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J6">
-        <v>0.02293068250867957</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.7665913908851</v>
+        <v>6.630069499999999</v>
       </c>
       <c r="N6">
-        <v>39.7665913908851</v>
+        <v>13.260139</v>
       </c>
       <c r="O6">
-        <v>0.8152232014106131</v>
+        <v>0.1301271859531131</v>
       </c>
       <c r="P6">
-        <v>0.8152232014106131</v>
+        <v>0.09068498458621042</v>
       </c>
       <c r="Q6">
-        <v>57.4850562273008</v>
+        <v>357.3302786706244</v>
       </c>
       <c r="R6">
-        <v>57.4850562273008</v>
+        <v>2143.981672023746</v>
       </c>
       <c r="S6">
-        <v>0.01869362440525611</v>
+        <v>0.09876335525797725</v>
       </c>
       <c r="T6">
-        <v>0.01869362440525611</v>
+        <v>0.07407123635280041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.44556156856021</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H7">
-        <v>1.44556156856021</v>
+        <v>5.753305</v>
       </c>
       <c r="I7">
-        <v>0.02293068250867957</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J7">
-        <v>0.02293068250867957</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.7892792392722</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N7">
-        <v>2.7892792392722</v>
+        <v>119.789299</v>
       </c>
       <c r="O7">
-        <v>0.05718079099907063</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P7">
-        <v>0.05718079099907063</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q7">
-        <v>4.03207487227475</v>
+        <v>76.57604143146612</v>
       </c>
       <c r="R7">
-        <v>4.03207487227475</v>
+        <v>689.1843728831951</v>
       </c>
       <c r="S7">
-        <v>0.001311194563994851</v>
+        <v>0.0211650320042336</v>
       </c>
       <c r="T7">
-        <v>0.001311194563994851</v>
+        <v>0.02381024951873856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.44556156856021</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H8">
-        <v>1.44556156856021</v>
+        <v>5.753305</v>
       </c>
       <c r="I8">
-        <v>0.02293068250867957</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J8">
-        <v>0.02293068250867957</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.224997559232255</v>
+        <v>3.113941333333333</v>
       </c>
       <c r="N8">
-        <v>0.224997559232255</v>
+        <v>9.341823999999999</v>
       </c>
       <c r="O8">
-        <v>0.004612495668636448</v>
+        <v>0.06111676852403306</v>
       </c>
       <c r="P8">
-        <v>0.004612495668636448</v>
+        <v>0.06388795512981353</v>
       </c>
       <c r="Q8">
-        <v>0.3252478246459973</v>
+        <v>5.971818080924444</v>
       </c>
       <c r="R8">
-        <v>0.3252478246459973</v>
+        <v>53.74636272831999</v>
       </c>
       <c r="S8">
-        <v>0.0001057676737501621</v>
+        <v>0.001650564829984667</v>
       </c>
       <c r="T8">
-        <v>0.0001057676737501621</v>
+        <v>0.001856853343804443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.44556156856021</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H9">
-        <v>1.44556156856021</v>
+        <v>5.753305</v>
       </c>
       <c r="I9">
-        <v>0.02293068250867957</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J9">
-        <v>0.02293068250867957</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.99913625856456</v>
+        <v>0.3581776666666667</v>
       </c>
       <c r="N9">
-        <v>5.99913625856456</v>
+        <v>1.074533</v>
       </c>
       <c r="O9">
-        <v>0.1229835119216798</v>
+        <v>0.007029888877422099</v>
       </c>
       <c r="P9">
-        <v>0.1229835119216798</v>
+        <v>0.007348641559667998</v>
       </c>
       <c r="Q9">
-        <v>8.672120819937014</v>
+        <v>0.6869017868405556</v>
       </c>
       <c r="R9">
-        <v>8.672120819937014</v>
+        <v>6.182116081565</v>
       </c>
       <c r="S9">
-        <v>0.00282009586567845</v>
+        <v>0.0001898543987189134</v>
       </c>
       <c r="T9">
-        <v>0.00282009586567845</v>
+        <v>0.0002135825074501746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6174303152208</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H10">
-        <v>11.6174303152208</v>
+        <v>5.753305</v>
       </c>
       <c r="I10">
-        <v>0.1842852023178573</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J10">
-        <v>0.1842852023178573</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>39.7665913908851</v>
+        <v>0.918732</v>
       </c>
       <c r="N10">
-        <v>39.7665913908851</v>
+        <v>2.756196</v>
       </c>
       <c r="O10">
-        <v>0.8152232014106131</v>
+        <v>0.0180317883251564</v>
       </c>
       <c r="P10">
-        <v>0.8152232014106131</v>
+        <v>0.01884939454832071</v>
       </c>
       <c r="Q10">
-        <v>461.985604357467</v>
+        <v>1.76191513642</v>
       </c>
       <c r="R10">
-        <v>461.985604357467</v>
+        <v>15.85723622778</v>
       </c>
       <c r="S10">
-        <v>0.1502335726061662</v>
+        <v>0.0004869798641190864</v>
       </c>
       <c r="T10">
-        <v>0.1502335726061662</v>
+        <v>0.0005478428793756371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6174303152208</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H11">
-        <v>11.6174303152208</v>
+        <v>5.753305</v>
       </c>
       <c r="I11">
-        <v>0.1842852023178573</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J11">
-        <v>0.1842852023178573</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.7892792392722</v>
+        <v>6.630069499999999</v>
       </c>
       <c r="N11">
-        <v>2.7892792392722</v>
+        <v>13.260139</v>
       </c>
       <c r="O11">
-        <v>0.05718079099907063</v>
+        <v>0.1301271859531131</v>
       </c>
       <c r="P11">
-        <v>0.05718079099907063</v>
+        <v>0.09068498458621042</v>
       </c>
       <c r="Q11">
-        <v>32.40425719193686</v>
+        <v>12.71493733489917</v>
       </c>
       <c r="R11">
-        <v>32.40425719193686</v>
+        <v>76.289624009395</v>
       </c>
       <c r="S11">
-        <v>0.01053757363795885</v>
+        <v>0.003514311403336445</v>
       </c>
       <c r="T11">
-        <v>0.01053757363795885</v>
+        <v>0.002635688002842026</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>11.6174303152208</v>
+        <v>0.03280966666666667</v>
       </c>
       <c r="H12">
-        <v>11.6174303152208</v>
+        <v>0.098429</v>
       </c>
       <c r="I12">
-        <v>0.1842852023178573</v>
+        <v>0.000462038195015066</v>
       </c>
       <c r="J12">
-        <v>0.1842852023178573</v>
+        <v>0.0004972379773867126</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.224997559232255</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N12">
-        <v>0.224997559232255</v>
+        <v>119.789299</v>
       </c>
       <c r="O12">
-        <v>0.004612495668636448</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P12">
-        <v>0.004612495668636448</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q12">
-        <v>2.613893465475487</v>
+        <v>1.310082323474556</v>
       </c>
       <c r="R12">
-        <v>2.613893465475487</v>
+        <v>11.790740911271</v>
       </c>
       <c r="S12">
-        <v>0.0008500146974849083</v>
+        <v>0.0003620967313821723</v>
       </c>
       <c r="T12">
-        <v>0.0008500146974849083</v>
+        <v>0.0004073517829977582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03280966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.098429</v>
+      </c>
+      <c r="I13">
+        <v>0.000462038195015066</v>
+      </c>
+      <c r="J13">
+        <v>0.0004972379773867126</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.113941333333333</v>
+      </c>
+      <c r="N13">
+        <v>9.341823999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.06111676852403306</v>
+      </c>
+      <c r="P13">
+        <v>0.06388795512981353</v>
+      </c>
+      <c r="Q13">
+        <v>0.1021673771662222</v>
+      </c>
+      <c r="R13">
+        <v>0.9195063944959999</v>
+      </c>
+      <c r="S13">
+        <v>2.823828141399783E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.176751758812153E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03280966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.098429</v>
+      </c>
+      <c r="I14">
+        <v>0.000462038195015066</v>
+      </c>
+      <c r="J14">
+        <v>0.0004972379773867126</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3581776666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.074533</v>
+      </c>
+      <c r="O14">
+        <v>0.007029888877422099</v>
+      </c>
+      <c r="P14">
+        <v>0.007348641559667998</v>
+      </c>
+      <c r="Q14">
+        <v>0.01175168985077778</v>
+      </c>
+      <c r="R14">
+        <v>0.105765208657</v>
+      </c>
+      <c r="S14">
+        <v>3.248077168080595E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.654023665669252E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03280966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.098429</v>
+      </c>
+      <c r="I15">
+        <v>0.000462038195015066</v>
+      </c>
+      <c r="J15">
+        <v>0.0004972379773867126</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.918732</v>
+      </c>
+      <c r="N15">
+        <v>2.756196</v>
+      </c>
+      <c r="O15">
+        <v>0.0180317883251564</v>
+      </c>
+      <c r="P15">
+        <v>0.01884939454832071</v>
+      </c>
+      <c r="Q15">
+        <v>0.030143290676</v>
+      </c>
+      <c r="R15">
+        <v>0.271289616084</v>
+      </c>
+      <c r="S15">
+        <v>8.331374930649002E-06</v>
+      </c>
+      <c r="T15">
+        <v>9.372634820171117E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03280966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.098429</v>
+      </c>
+      <c r="I16">
+        <v>0.000462038195015066</v>
+      </c>
+      <c r="J16">
+        <v>0.0004972379773867126</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.630069499999999</v>
+      </c>
+      <c r="N16">
+        <v>13.260139</v>
+      </c>
+      <c r="O16">
+        <v>0.1301271859531131</v>
+      </c>
+      <c r="P16">
+        <v>0.09068498458621042</v>
+      </c>
+      <c r="Q16">
+        <v>0.2175303702718333</v>
+      </c>
+      <c r="R16">
+        <v>1.305182221631</v>
+      </c>
+      <c r="S16">
+        <v>6.012373012016622E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.509201831499248E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.252188</v>
+      </c>
+      <c r="I17">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J17">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>39.92976633333334</v>
+      </c>
+      <c r="N17">
+        <v>119.789299</v>
+      </c>
+      <c r="O17">
+        <v>0.7836943683202753</v>
+      </c>
+      <c r="P17">
+        <v>0.8192290241759874</v>
+      </c>
+      <c r="Q17">
+        <v>3.35660263735689</v>
+      </c>
+      <c r="R17">
+        <v>30.20942373621201</v>
+      </c>
+      <c r="S17">
+        <v>0.0009277392891709485</v>
+      </c>
+      <c r="T17">
+        <v>0.001043688663408535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.252188</v>
+      </c>
+      <c r="I18">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J18">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.113941333333333</v>
+      </c>
+      <c r="N18">
+        <v>9.341823999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.06111676852403306</v>
+      </c>
+      <c r="P18">
+        <v>0.06388795512981353</v>
+      </c>
+      <c r="Q18">
+        <v>0.2617662123235556</v>
+      </c>
+      <c r="R18">
+        <v>2.355895910912</v>
+      </c>
+      <c r="S18">
+        <v>7.235017843555544E-05</v>
+      </c>
+      <c r="T18">
+        <v>8.139254412330911E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.6174303152208</v>
-      </c>
-      <c r="H13">
-        <v>11.6174303152208</v>
-      </c>
-      <c r="I13">
-        <v>0.1842852023178573</v>
-      </c>
-      <c r="J13">
-        <v>0.1842852023178573</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.99913625856456</v>
-      </c>
-      <c r="N13">
-        <v>5.99913625856456</v>
-      </c>
-      <c r="O13">
-        <v>0.1229835119216798</v>
-      </c>
-      <c r="P13">
-        <v>0.1229835119216798</v>
-      </c>
-      <c r="Q13">
-        <v>69.6945474353882</v>
-      </c>
-      <c r="R13">
-        <v>69.6945474353882</v>
-      </c>
-      <c r="S13">
-        <v>0.02266404137624738</v>
-      </c>
-      <c r="T13">
-        <v>0.02266404137624738</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.252188</v>
+      </c>
+      <c r="I19">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J19">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3581776666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.074533</v>
+      </c>
+      <c r="O19">
+        <v>0.007029888877422099</v>
+      </c>
+      <c r="P19">
+        <v>0.007348641559667998</v>
+      </c>
+      <c r="Q19">
+        <v>0.03010936980044445</v>
+      </c>
+      <c r="R19">
+        <v>0.270984328204</v>
+      </c>
+      <c r="S19">
+        <v>8.321999460158179E-06</v>
+      </c>
+      <c r="T19">
+        <v>9.362087598144831E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.252188</v>
+      </c>
+      <c r="I20">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J20">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.918732</v>
+      </c>
+      <c r="N20">
+        <v>2.756196</v>
+      </c>
+      <c r="O20">
+        <v>0.0180317883251564</v>
+      </c>
+      <c r="P20">
+        <v>0.01884939454832071</v>
+      </c>
+      <c r="Q20">
+        <v>0.077231061872</v>
+      </c>
+      <c r="R20">
+        <v>0.695079556848</v>
+      </c>
+      <c r="S20">
+        <v>2.134607464274259E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.401391896726893E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.252188</v>
+      </c>
+      <c r="I21">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J21">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.630069499999999</v>
+      </c>
+      <c r="N21">
+        <v>13.260139</v>
+      </c>
+      <c r="O21">
+        <v>0.1301271859531131</v>
+      </c>
+      <c r="P21">
+        <v>0.09068498458621042</v>
+      </c>
+      <c r="Q21">
+        <v>0.5573413223553333</v>
+      </c>
+      <c r="R21">
+        <v>3.344047934132</v>
+      </c>
+      <c r="S21">
+        <v>0.0001540448775416237</v>
+      </c>
+      <c r="T21">
+        <v>0.0001155316615511823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>15.0806785</v>
+      </c>
+      <c r="H22">
+        <v>30.161357</v>
+      </c>
+      <c r="I22">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J22">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>39.92976633333334</v>
+      </c>
+      <c r="N22">
+        <v>119.789299</v>
+      </c>
+      <c r="O22">
+        <v>0.7836943683202753</v>
+      </c>
+      <c r="P22">
+        <v>0.8192290241759874</v>
+      </c>
+      <c r="Q22">
+        <v>602.167968653124</v>
+      </c>
+      <c r="R22">
+        <v>3613.007811918744</v>
+      </c>
+      <c r="S22">
+        <v>0.1664346196306597</v>
+      </c>
+      <c r="T22">
+        <v>0.1248238075321492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>15.0806785</v>
+      </c>
+      <c r="H23">
+        <v>30.161357</v>
+      </c>
+      <c r="I23">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J23">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.113941333333333</v>
+      </c>
+      <c r="N23">
+        <v>9.341823999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06111676852403306</v>
+      </c>
+      <c r="P23">
+        <v>0.06388795512981353</v>
+      </c>
+      <c r="Q23">
+        <v>46.96034811586133</v>
+      </c>
+      <c r="R23">
+        <v>281.762088695168</v>
+      </c>
+      <c r="S23">
+        <v>0.01297948094759756</v>
+      </c>
+      <c r="T23">
+        <v>0.00973444248117031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>15.0806785</v>
+      </c>
+      <c r="H24">
+        <v>30.161357</v>
+      </c>
+      <c r="I24">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J24">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3581776666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.074533</v>
+      </c>
+      <c r="O24">
+        <v>0.007029888877422099</v>
+      </c>
+      <c r="P24">
+        <v>0.007348641559667998</v>
+      </c>
+      <c r="Q24">
+        <v>5.401562236880167</v>
+      </c>
+      <c r="R24">
+        <v>32.409373421281</v>
+      </c>
+      <c r="S24">
+        <v>0.001492950477451176</v>
+      </c>
+      <c r="T24">
+        <v>0.001119693507672525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>15.0806785</v>
+      </c>
+      <c r="H25">
+        <v>30.161357</v>
+      </c>
+      <c r="I25">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J25">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.918732</v>
+      </c>
+      <c r="N25">
+        <v>2.756196</v>
+      </c>
+      <c r="O25">
+        <v>0.0180317883251564</v>
+      </c>
+      <c r="P25">
+        <v>0.01884939454832071</v>
+      </c>
+      <c r="Q25">
+        <v>13.855101919662</v>
+      </c>
+      <c r="R25">
+        <v>83.13061151797201</v>
+      </c>
+      <c r="S25">
+        <v>0.003829444171699725</v>
+      </c>
+      <c r="T25">
+        <v>0.002872033494618577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>15.0806785</v>
+      </c>
+      <c r="H26">
+        <v>30.161357</v>
+      </c>
+      <c r="I26">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J26">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.630069499999999</v>
+      </c>
+      <c r="N26">
+        <v>13.260139</v>
+      </c>
+      <c r="O26">
+        <v>0.1301271859531131</v>
+      </c>
+      <c r="P26">
+        <v>0.09068498458621042</v>
+      </c>
+      <c r="Q26">
+        <v>99.98594656215575</v>
+      </c>
+      <c r="R26">
+        <v>399.943786248623</v>
+      </c>
+      <c r="S26">
+        <v>0.0276353506841376</v>
+      </c>
+      <c r="T26">
+        <v>0.01381743655070179</v>
       </c>
     </row>
   </sheetData>
